--- a/backtesting/general_stats.xlsx
+++ b/backtesting/general_stats.xlsx
@@ -777,13 +777,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="E7" t="n">
         <v>2.53</v>
@@ -795,13 +795,13 @@
         <v>-12.86</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="I7" t="n">
         <v>-0.01</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K7" t="n">
         <v>2.53</v>
@@ -813,7 +813,7 @@
         <v>-11.98</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="O7" t="n">
         <v>-0.01</v>
